--- a/Output/MoveQual_unaff.xlsx
+++ b/Output/MoveQual_unaff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
     <t>ppID</t>
   </si>
@@ -333,6 +333,69 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>BC_007</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_007</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
   </si>
 </sst>
 </file>
@@ -353,7 +416,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -364,15 +427,29 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +459,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC18"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.37890625" customWidth="true"/>
-    <col min="2" max="2" width="8.15625" customWidth="true"/>
-    <col min="3" max="3" width="4.82421875" customWidth="true"/>
+    <col min="1" max="1" width="7.42578125" customWidth="true"/>
+    <col min="2" max="2" width="8.28515625" customWidth="true"/>
+    <col min="3" max="3" width="5.28515625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -396,24 +473,24 @@
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="18.37890625" customWidth="true"/>
-    <col min="13" max="13" width="18.15625" customWidth="true"/>
+    <col min="12" max="12" width="20" customWidth="true"/>
+    <col min="13" max="13" width="19.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
     <col min="23" max="23" width="12.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
-    <col min="25" max="25" width="12.37890625" customWidth="true"/>
-    <col min="26" max="26" width="12.37890625" customWidth="true"/>
-    <col min="27" max="27" width="12.37890625" customWidth="true"/>
-    <col min="28" max="28" width="12.37890625" customWidth="true"/>
-    <col min="29" max="29" width="12.37890625" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
+    <col min="26" max="26" width="12.42578125" customWidth="true"/>
+    <col min="27" max="27" width="12.42578125" customWidth="true"/>
+    <col min="28" max="28" width="12.42578125" customWidth="true"/>
+    <col min="29" max="29" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1393,6 +1470,629 @@
       </c>
       <c r="AC11" s="0">
         <v>-7.1450434973665846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2.7231979818915075</v>
+      </c>
+      <c r="E12" s="0">
+        <v>3.9467975744422232</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2.450011505956323</v>
+      </c>
+      <c r="G12" s="0">
+        <v>3.1388298768577942</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.79817699374124618</v>
+      </c>
+      <c r="I12" s="0">
+        <v>1.3185013673507859</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.65611984784873167</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0.95104942130386183</v>
+      </c>
+      <c r="L12" s="0">
+        <v>2.3384615384615386</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0.10305172545696713</v>
+      </c>
+      <c r="N12" s="0">
+        <v>0.85301576113623556</v>
+      </c>
+      <c r="O12" s="0">
+        <v>0.77160577871875013</v>
+      </c>
+      <c r="P12" s="0">
+        <v>0.80557651650588458</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>0.77179698427251242</v>
+      </c>
+      <c r="R12" s="0">
+        <v>2.0527279327182346</v>
+      </c>
+      <c r="S12" s="0">
+        <v>0.9418684369657061</v>
+      </c>
+      <c r="T12" s="0">
+        <v>2.6432030510758198</v>
+      </c>
+      <c r="U12" s="0">
+        <v>3.4766838348533247</v>
+      </c>
+      <c r="V12" s="0">
+        <v>0.59042697876059114</v>
+      </c>
+      <c r="W12" s="0">
+        <v>0.27091000554137007</v>
+      </c>
+      <c r="X12" s="0">
+        <v>0.76026557968200514</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>-6.4157142546790515</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>-2.7172427770146377</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>-3.6606799771674412</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>-2.0781798550038704</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>-7.777703405320068</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="0">
+        <v>2.7231979818915075</v>
+      </c>
+      <c r="E13" s="0">
+        <v>3.9467975744422232</v>
+      </c>
+      <c r="F13" s="0">
+        <v>2.450011505956323</v>
+      </c>
+      <c r="G13" s="0">
+        <v>3.1388298768577942</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.79817699374124618</v>
+      </c>
+      <c r="I13" s="0">
+        <v>1.3185013673507859</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0.65611984784873167</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.95104942130386183</v>
+      </c>
+      <c r="L13" s="0">
+        <v>2.3384615384615386</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0.10305172545696713</v>
+      </c>
+      <c r="N13" s="0">
+        <v>0.85301576113623556</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0.77160577871875013</v>
+      </c>
+      <c r="P13" s="0">
+        <v>0.80557651650588458</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>0.77179698427251242</v>
+      </c>
+      <c r="R13" s="0">
+        <v>2.0527279327182346</v>
+      </c>
+      <c r="S13" s="0">
+        <v>0.9418684369657061</v>
+      </c>
+      <c r="T13" s="0">
+        <v>2.6432030510758198</v>
+      </c>
+      <c r="U13" s="0">
+        <v>3.4766838348533247</v>
+      </c>
+      <c r="V13" s="0">
+        <v>0.59042697876059114</v>
+      </c>
+      <c r="W13" s="0">
+        <v>0.27091000554137007</v>
+      </c>
+      <c r="X13" s="0">
+        <v>0.76026557968200514</v>
+      </c>
+      <c r="Y13" s="0">
+        <v>-6.4157142546790515</v>
+      </c>
+      <c r="Z13" s="0">
+        <v>-2.7172427770146377</v>
+      </c>
+      <c r="AA13" s="0">
+        <v>-3.6606799771674412</v>
+      </c>
+      <c r="AB13" s="0">
+        <v>-2.0781798550038704</v>
+      </c>
+      <c r="AC13" s="0">
+        <v>-7.777703405320068</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="0">
+        <v>3.5834195082950506</v>
+      </c>
+      <c r="E14" s="0">
+        <v>1.2410491994876334</v>
+      </c>
+      <c r="F14" s="0">
+        <v>3.9978536759960011</v>
+      </c>
+      <c r="G14" s="0">
+        <v>4.0935344323117677</v>
+      </c>
+      <c r="H14" s="0">
+        <v>1.0923004608216589</v>
+      </c>
+      <c r="I14" s="0">
+        <v>1.252033040681688</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.63843946948529717</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.0681222352598378</v>
+      </c>
+      <c r="L14" s="0">
+        <v>2.1642857142857141</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0.15550539920507322</v>
+      </c>
+      <c r="N14" s="0">
+        <v>0.74429205200278137</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0.67782011786342444</v>
+      </c>
+      <c r="P14" s="0">
+        <v>0.83088972460876054</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>0.72262245551411419</v>
+      </c>
+      <c r="R14" s="0">
+        <v>2.478352169388514</v>
+      </c>
+      <c r="S14" s="0">
+        <v>1.7921475561396858</v>
+      </c>
+      <c r="T14" s="0">
+        <v>3.7334254240621205</v>
+      </c>
+      <c r="U14" s="0">
+        <v>4.8262291424593196</v>
+      </c>
+      <c r="V14" s="0">
+        <v>0.5135173022733045</v>
+      </c>
+      <c r="W14" s="0">
+        <v>0.37133494975882025</v>
+      </c>
+      <c r="X14" s="0">
+        <v>0.77356986455882704</v>
+      </c>
+      <c r="Y14" s="0">
+        <v>-7.4028615117087453</v>
+      </c>
+      <c r="Z14" s="0">
+        <v>-2.8708929563122974</v>
+      </c>
+      <c r="AA14" s="0">
+        <v>-3.8716042063925049</v>
+      </c>
+      <c r="AB14" s="0">
+        <v>-2.188467399969658</v>
+      </c>
+      <c r="AC14" s="0">
+        <v>-7.6623475086385806</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="0">
+        <v>3.5834195082950506</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1.2410491994876334</v>
+      </c>
+      <c r="F15" s="0">
+        <v>3.9978536759960011</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4.0935344323117677</v>
+      </c>
+      <c r="H15" s="0">
+        <v>1.0923004608216589</v>
+      </c>
+      <c r="I15" s="0">
+        <v>1.252033040681688</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.63843946948529717</v>
+      </c>
+      <c r="K15" s="0">
+        <v>1.0681222352598378</v>
+      </c>
+      <c r="L15" s="0">
+        <v>2.1642857142857141</v>
+      </c>
+      <c r="M15" s="0">
+        <v>0.15550539920507322</v>
+      </c>
+      <c r="N15" s="0">
+        <v>0.74429205200278137</v>
+      </c>
+      <c r="O15" s="0">
+        <v>0.67782011786342444</v>
+      </c>
+      <c r="P15" s="0">
+        <v>0.83088972460876054</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>0.72262245551411419</v>
+      </c>
+      <c r="R15" s="0">
+        <v>2.478352169388514</v>
+      </c>
+      <c r="S15" s="0">
+        <v>1.7921475561396858</v>
+      </c>
+      <c r="T15" s="0">
+        <v>3.7334254240621205</v>
+      </c>
+      <c r="U15" s="0">
+        <v>4.8262291424593196</v>
+      </c>
+      <c r="V15" s="0">
+        <v>0.5135173022733045</v>
+      </c>
+      <c r="W15" s="0">
+        <v>0.37133494975882025</v>
+      </c>
+      <c r="X15" s="0">
+        <v>0.77356986455882704</v>
+      </c>
+      <c r="Y15" s="0">
+        <v>-7.4028615117087453</v>
+      </c>
+      <c r="Z15" s="0">
+        <v>-2.8708929563122974</v>
+      </c>
+      <c r="AA15" s="0">
+        <v>-3.8716042063925049</v>
+      </c>
+      <c r="AB15" s="0">
+        <v>-2.188467399969658</v>
+      </c>
+      <c r="AC15" s="0">
+        <v>-7.6623475086385806</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="0">
+        <v>3.5834195082950506</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1.2410491994876334</v>
+      </c>
+      <c r="F16" s="0">
+        <v>3.9978536759960011</v>
+      </c>
+      <c r="G16" s="0">
+        <v>4.0935344323117677</v>
+      </c>
+      <c r="H16" s="0">
+        <v>1.0923004608216589</v>
+      </c>
+      <c r="I16" s="0">
+        <v>1.252033040681688</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0.63843946948529717</v>
+      </c>
+      <c r="K16" s="0">
+        <v>1.0681222352598378</v>
+      </c>
+      <c r="L16" s="0">
+        <v>2.1642857142857141</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0.15550539920507322</v>
+      </c>
+      <c r="N16" s="0">
+        <v>0.74429205200278137</v>
+      </c>
+      <c r="O16" s="0">
+        <v>0.67782011786342444</v>
+      </c>
+      <c r="P16" s="0">
+        <v>0.83088972460876054</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>0.72262245551411419</v>
+      </c>
+      <c r="R16" s="0">
+        <v>2.478352169388514</v>
+      </c>
+      <c r="S16" s="0">
+        <v>1.7921475561396858</v>
+      </c>
+      <c r="T16" s="0">
+        <v>3.7334254240621205</v>
+      </c>
+      <c r="U16" s="0">
+        <v>4.8262291424593196</v>
+      </c>
+      <c r="V16" s="0">
+        <v>0.5135173022733045</v>
+      </c>
+      <c r="W16" s="0">
+        <v>0.37133494975882025</v>
+      </c>
+      <c r="X16" s="0">
+        <v>0.77356986455882704</v>
+      </c>
+      <c r="Y16" s="0">
+        <v>-7.4028615117087453</v>
+      </c>
+      <c r="Z16" s="0">
+        <v>-2.8708929563122974</v>
+      </c>
+      <c r="AA16" s="0">
+        <v>-3.8716042063925049</v>
+      </c>
+      <c r="AB16" s="0">
+        <v>-2.188467399969658</v>
+      </c>
+      <c r="AC16" s="0">
+        <v>-7.6623475086385806</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3.5834195082950506</v>
+      </c>
+      <c r="E17" s="0">
+        <v>1.2410491994876334</v>
+      </c>
+      <c r="F17" s="0">
+        <v>3.9978536759960011</v>
+      </c>
+      <c r="G17" s="0">
+        <v>4.0935344323117677</v>
+      </c>
+      <c r="H17" s="0">
+        <v>1.0923004608216589</v>
+      </c>
+      <c r="I17" s="0">
+        <v>1.252033040681688</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0.63843946948529717</v>
+      </c>
+      <c r="K17" s="0">
+        <v>1.0681222352598378</v>
+      </c>
+      <c r="L17" s="0">
+        <v>2.1642857142857141</v>
+      </c>
+      <c r="M17" s="0">
+        <v>0.15550539920507322</v>
+      </c>
+      <c r="N17" s="0">
+        <v>0.74429205200278137</v>
+      </c>
+      <c r="O17" s="0">
+        <v>0.67782011786342444</v>
+      </c>
+      <c r="P17" s="0">
+        <v>0.83088972460876054</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>0.72262245551411419</v>
+      </c>
+      <c r="R17" s="0">
+        <v>2.478352169388514</v>
+      </c>
+      <c r="S17" s="0">
+        <v>1.7921475561396858</v>
+      </c>
+      <c r="T17" s="0">
+        <v>3.7334254240621205</v>
+      </c>
+      <c r="U17" s="0">
+        <v>4.8262291424593196</v>
+      </c>
+      <c r="V17" s="0">
+        <v>0.5135173022733045</v>
+      </c>
+      <c r="W17" s="0">
+        <v>0.37133494975882025</v>
+      </c>
+      <c r="X17" s="0">
+        <v>0.77356986455882704</v>
+      </c>
+      <c r="Y17" s="0">
+        <v>-7.4028615117087453</v>
+      </c>
+      <c r="Z17" s="0">
+        <v>-2.8708929563122974</v>
+      </c>
+      <c r="AA17" s="0">
+        <v>-3.8716042063925049</v>
+      </c>
+      <c r="AB17" s="0">
+        <v>-2.188467399969658</v>
+      </c>
+      <c r="AC17" s="0">
+        <v>-7.6623475086385806</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="0">
+        <v>2.3578742173867737</v>
+      </c>
+      <c r="E18" s="0">
+        <v>7.9068438943222681</v>
+      </c>
+      <c r="F18" s="0">
+        <v>2.2080496851434561</v>
+      </c>
+      <c r="G18" s="0">
+        <v>6.3344555125367661</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.46654713765687572</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0.82522887828834202</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0.33183083998903157</v>
+      </c>
+      <c r="K18" s="0">
+        <v>0.41651059693873382</v>
+      </c>
+      <c r="L18" s="0">
+        <v>3.6361111111111115</v>
+      </c>
+      <c r="M18" s="0">
+        <v>0.33339645866925249</v>
+      </c>
+      <c r="N18" s="0">
+        <v>0.79284791517346087</v>
+      </c>
+      <c r="O18" s="0">
+        <v>0.64899790118330047</v>
+      </c>
+      <c r="P18" s="0">
+        <v>0.79462904377649202</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>0.75190330438287623</v>
+      </c>
+      <c r="R18" s="0">
+        <v>1.81208621240012</v>
+      </c>
+      <c r="S18" s="0">
+        <v>0.95349527076476515</v>
+      </c>
+      <c r="T18" s="0">
+        <v>2.9516623462878897</v>
+      </c>
+      <c r="U18" s="0">
+        <v>3.5923697302804318</v>
+      </c>
+      <c r="V18" s="0">
+        <v>0.50442642279436578</v>
+      </c>
+      <c r="W18" s="0">
+        <v>0.26542236527817858</v>
+      </c>
+      <c r="X18" s="0">
+        <v>0.82164770552653321</v>
+      </c>
+      <c r="Y18" s="0">
+        <v>-5.0453219345928408</v>
+      </c>
+      <c r="Z18" s="0">
+        <v>-3.253170293236805</v>
+      </c>
+      <c r="AA18" s="0">
+        <v>-4.8050782916766304</v>
+      </c>
+      <c r="AB18" s="0">
+        <v>-2.5599310366867987</v>
+      </c>
+      <c r="AC18" s="0">
+        <v>-8.6442624667426013</v>
       </c>
     </row>
   </sheetData>

--- a/Output/MoveQual_unaff.xlsx
+++ b/Output/MoveQual_unaff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
   <si>
     <t>ppID</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
   </si>
   <si>
     <t>T0</t>
@@ -416,7 +425,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -434,11 +443,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -450,6 +460,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,12 +470,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="true"/>
-    <col min="2" max="2" width="8.28515625" customWidth="true"/>
-    <col min="3" max="3" width="5.28515625" customWidth="true"/>
+    <col min="1" max="1" width="7.37890625" customWidth="true"/>
+    <col min="2" max="2" width="8.15625" customWidth="true"/>
+    <col min="3" max="3" width="4.82421875" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -473,8 +484,8 @@
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="20" customWidth="true"/>
-    <col min="13" max="13" width="19.7109375" customWidth="true"/>
+    <col min="12" max="12" width="18.37890625" customWidth="true"/>
+    <col min="13" max="13" width="18.15625" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
@@ -486,11 +497,11 @@
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
     <col min="23" max="23" width="12.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="12.42578125" customWidth="true"/>
-    <col min="27" max="27" width="12.42578125" customWidth="true"/>
-    <col min="28" max="28" width="12.42578125" customWidth="true"/>
-    <col min="29" max="29" width="12.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.37890625" customWidth="true"/>
+    <col min="26" max="26" width="12.37890625" customWidth="true"/>
+    <col min="27" max="27" width="12.37890625" customWidth="true"/>
+    <col min="28" max="28" width="12.37890625" customWidth="true"/>
+    <col min="29" max="29" width="12.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2092,6 +2103,95 @@
         <v>-2.5599310366867987</v>
       </c>
       <c r="AC18" s="0">
+        <v>-8.6442624667426013</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="0">
+        <v>2.3578742173867737</v>
+      </c>
+      <c r="E19" s="0">
+        <v>7.9068438943222681</v>
+      </c>
+      <c r="F19" s="0">
+        <v>2.2080496851434561</v>
+      </c>
+      <c r="G19" s="0">
+        <v>6.3344555125367661</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.46654713765687572</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0.82522887828834202</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0.33183083998903157</v>
+      </c>
+      <c r="K19" s="0">
+        <v>0.41651059693873382</v>
+      </c>
+      <c r="L19" s="0">
+        <v>3.6361111111111115</v>
+      </c>
+      <c r="M19" s="0">
+        <v>0.33339645866925249</v>
+      </c>
+      <c r="N19" s="0">
+        <v>0.79284791517346087</v>
+      </c>
+      <c r="O19" s="0">
+        <v>0.64899790118330047</v>
+      </c>
+      <c r="P19" s="0">
+        <v>0.79462904377649202</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>0.75190330438287623</v>
+      </c>
+      <c r="R19" s="0">
+        <v>1.81208621240012</v>
+      </c>
+      <c r="S19" s="0">
+        <v>0.95349527076476515</v>
+      </c>
+      <c r="T19" s="0">
+        <v>2.9516623462878897</v>
+      </c>
+      <c r="U19" s="0">
+        <v>3.5923697302804318</v>
+      </c>
+      <c r="V19" s="0">
+        <v>0.50442642279436578</v>
+      </c>
+      <c r="W19" s="0">
+        <v>0.26542236527817858</v>
+      </c>
+      <c r="X19" s="0">
+        <v>0.82164770552653321</v>
+      </c>
+      <c r="Y19" s="0">
+        <v>-5.0453219345928408</v>
+      </c>
+      <c r="Z19" s="0">
+        <v>-3.253170293236805</v>
+      </c>
+      <c r="AA19" s="0">
+        <v>-4.8050782916766304</v>
+      </c>
+      <c r="AB19" s="0">
+        <v>-2.5599310366867987</v>
+      </c>
+      <c r="AC19" s="0">
         <v>-8.6442624667426013</v>
       </c>
     </row>

--- a/Output/MoveQual_unaff.xlsx
+++ b/Output/MoveQual_unaff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
   <si>
     <t>ppID</t>
   </si>
@@ -399,6 +399,123 @@
   </si>
   <si>
     <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_001</t>
+  </si>
+  <si>
+    <t>BC_002</t>
+  </si>
+  <si>
+    <t>BC_003</t>
+  </si>
+  <si>
+    <t>BC_005</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>BC_007</t>
+  </si>
+  <si>
+    <t>BC_008</t>
+  </si>
+  <si>
+    <t>BC_009</t>
+  </si>
+  <si>
+    <t>BC_010</t>
+  </si>
+  <si>
+    <t>BC_011</t>
+  </si>
+  <si>
+    <t>BC_012</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>BC_014</t>
+  </si>
+  <si>
+    <t>BC_015</t>
+  </si>
+  <si>
+    <t>BC_016</t>
+  </si>
+  <si>
+    <t>BC_017</t>
+  </si>
+  <si>
+    <t>BC_018</t>
+  </si>
+  <si>
+    <t>BC_019</t>
+  </si>
+  <si>
+    <t>BC_020</t>
+  </si>
+  <si>
+    <t>BC_021</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_L_002</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
   </si>
   <si>
     <t>F_L_001</t>
@@ -425,7 +542,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -444,11 +561,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -461,6 +581,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,22 +593,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.37890625" customWidth="true"/>
     <col min="2" max="2" width="8.15625" customWidth="true"/>
-    <col min="3" max="3" width="4.82421875" customWidth="true"/>
+    <col min="3" max="3" width="3.15625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="18.37890625" customWidth="true"/>
-    <col min="13" max="13" width="18.15625" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="13.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
@@ -2193,6 +2316,1964 @@
       </c>
       <c r="AC19" s="0">
         <v>-8.6442624667426013</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="0">
+        <v>2.3578742173867737</v>
+      </c>
+      <c r="E20" s="0">
+        <v>7.9068438943222681</v>
+      </c>
+      <c r="F20" s="0">
+        <v>2.2080496851434561</v>
+      </c>
+      <c r="G20" s="0">
+        <v>6.3344555125367661</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.46654713765687572</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0.82522887828834202</v>
+      </c>
+      <c r="J20" s="0">
+        <v>0.33183083998903157</v>
+      </c>
+      <c r="K20" s="0">
+        <v>0.41651059693873382</v>
+      </c>
+      <c r="L20" s="0">
+        <v>3.6361111111111115</v>
+      </c>
+      <c r="M20" s="0">
+        <v>0.33339645866925249</v>
+      </c>
+      <c r="N20" s="0">
+        <v>0.79284791517346087</v>
+      </c>
+      <c r="O20" s="0">
+        <v>0.64899790118330047</v>
+      </c>
+      <c r="P20" s="0">
+        <v>0.79462904377649202</v>
+      </c>
+      <c r="Q20" s="0">
+        <v>0.75190330438287623</v>
+      </c>
+      <c r="R20" s="0">
+        <v>1.81208621240012</v>
+      </c>
+      <c r="S20" s="0">
+        <v>0.95349527076476515</v>
+      </c>
+      <c r="T20" s="0">
+        <v>2.9516623462878897</v>
+      </c>
+      <c r="U20" s="0">
+        <v>3.5923697302804318</v>
+      </c>
+      <c r="V20" s="0">
+        <v>0.50442642279436578</v>
+      </c>
+      <c r="W20" s="0">
+        <v>0.26542236527817858</v>
+      </c>
+      <c r="X20" s="0">
+        <v>0.82164770552653321</v>
+      </c>
+      <c r="Y20" s="0">
+        <v>-5.0453219345928408</v>
+      </c>
+      <c r="Z20" s="0">
+        <v>-3.253170293236805</v>
+      </c>
+      <c r="AA20" s="0">
+        <v>-4.8050782916766304</v>
+      </c>
+      <c r="AB20" s="0">
+        <v>-2.5599310366867987</v>
+      </c>
+      <c r="AC20" s="0">
+        <v>-8.6442624667426013</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="0">
+        <v>2.3578742173867737</v>
+      </c>
+      <c r="E21" s="0">
+        <v>7.9068438943222681</v>
+      </c>
+      <c r="F21" s="0">
+        <v>2.2080496851434561</v>
+      </c>
+      <c r="G21" s="0">
+        <v>6.3344555125367661</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.46654713765687572</v>
+      </c>
+      <c r="I21" s="0">
+        <v>0.82522887828834202</v>
+      </c>
+      <c r="J21" s="0">
+        <v>0.33183083998903157</v>
+      </c>
+      <c r="K21" s="0">
+        <v>0.41651059693873382</v>
+      </c>
+      <c r="L21" s="0">
+        <v>3.6361111111111115</v>
+      </c>
+      <c r="M21" s="0">
+        <v>0.33339645866925249</v>
+      </c>
+      <c r="N21" s="0">
+        <v>0.79284791517346087</v>
+      </c>
+      <c r="O21" s="0">
+        <v>0.64899790118330047</v>
+      </c>
+      <c r="P21" s="0">
+        <v>0.79462904377649202</v>
+      </c>
+      <c r="Q21" s="0">
+        <v>0.75190330438287623</v>
+      </c>
+      <c r="R21" s="0">
+        <v>1.81208621240012</v>
+      </c>
+      <c r="S21" s="0">
+        <v>0.95349527076476515</v>
+      </c>
+      <c r="T21" s="0">
+        <v>2.9516623462878897</v>
+      </c>
+      <c r="U21" s="0">
+        <v>3.5923697302804318</v>
+      </c>
+      <c r="V21" s="0">
+        <v>0.50442642279436578</v>
+      </c>
+      <c r="W21" s="0">
+        <v>0.26542236527817858</v>
+      </c>
+      <c r="X21" s="0">
+        <v>0.82164770552653321</v>
+      </c>
+      <c r="Y21" s="0">
+        <v>-5.0453219345928408</v>
+      </c>
+      <c r="Z21" s="0">
+        <v>-3.253170293236805</v>
+      </c>
+      <c r="AA21" s="0">
+        <v>-4.8050782916766304</v>
+      </c>
+      <c r="AB21" s="0">
+        <v>-2.5599310366867987</v>
+      </c>
+      <c r="AC21" s="0">
+        <v>-8.6442624667426013</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1.9362294340503317</v>
+      </c>
+      <c r="E22" s="0">
+        <v>2.0475135817802474</v>
+      </c>
+      <c r="F22" s="0">
+        <v>1.9605473988303823</v>
+      </c>
+      <c r="G22" s="0">
+        <v>2.9704357824851497</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.35556545294613601</v>
+      </c>
+      <c r="I22" s="0">
+        <v>0.79289824274170373</v>
+      </c>
+      <c r="J22" s="0">
+        <v>0.39475907132100141</v>
+      </c>
+      <c r="K22" s="0">
+        <v>0.4766059289616858</v>
+      </c>
+      <c r="L22" s="0">
+        <v>3.1722222222222212</v>
+      </c>
+      <c r="M22" s="0">
+        <v>0.454957725493844</v>
+      </c>
+      <c r="N22" s="0">
+        <v>0.33109845668915566</v>
+      </c>
+      <c r="O22" s="0">
+        <v>0.24110224793567916</v>
+      </c>
+      <c r="P22" s="0">
+        <v>0.2627381268566325</v>
+      </c>
+      <c r="Q22" s="0">
+        <v>0.24205509232653835</v>
+      </c>
+      <c r="R22" s="0">
+        <v>2.0351445163439794</v>
+      </c>
+      <c r="S22" s="0">
+        <v>1.0616030343740248</v>
+      </c>
+      <c r="T22" s="0">
+        <v>2.9716598061053578</v>
+      </c>
+      <c r="U22" s="0">
+        <v>3.7549402402993368</v>
+      </c>
+      <c r="V22" s="0">
+        <v>0.54199118657125189</v>
+      </c>
+      <c r="W22" s="0">
+        <v>0.28272168568237876</v>
+      </c>
+      <c r="X22" s="0">
+        <v>0.79140002661359599</v>
+      </c>
+      <c r="Y22" s="0">
+        <v>-8.3166642337882859</v>
+      </c>
+      <c r="Z22" s="0">
+        <v>-2.6755797632367191</v>
+      </c>
+      <c r="AA22" s="0">
+        <v>-4.118079420359499</v>
+      </c>
+      <c r="AB22" s="0">
+        <v>-2.2049304289415428</v>
+      </c>
+      <c r="AC22" s="0">
+        <v>-7.5887297659595943</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3.2202834720884579</v>
+      </c>
+      <c r="E23" s="0">
+        <v>2.1280644446026082</v>
+      </c>
+      <c r="F23" s="0">
+        <v>1.9066206467433147</v>
+      </c>
+      <c r="G23" s="0">
+        <v>4.9455985486089373</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.7922313000041532</v>
+      </c>
+      <c r="I23" s="0">
+        <v>0.89144406724395486</v>
+      </c>
+      <c r="J23" s="0">
+        <v>0.62589725119214878</v>
+      </c>
+      <c r="K23" s="0">
+        <v>0.83951265750118154</v>
+      </c>
+      <c r="L23" s="0">
+        <v>3.0448717948717952</v>
+      </c>
+      <c r="M23" s="0">
+        <v>0.25012817227194256</v>
+      </c>
+      <c r="N23" s="0">
+        <v>0.75429562814992157</v>
+      </c>
+      <c r="O23" s="0">
+        <v>0.67996864535442914</v>
+      </c>
+      <c r="P23" s="0">
+        <v>0.82860967581119216</v>
+      </c>
+      <c r="Q23" s="0">
+        <v>0.76060815340976173</v>
+      </c>
+      <c r="R23" s="0">
+        <v>1.2833692451034413</v>
+      </c>
+      <c r="S23" s="0">
+        <v>1.2452312359872344</v>
+      </c>
+      <c r="T23" s="0">
+        <v>1.8729275889746819</v>
+      </c>
+      <c r="U23" s="0">
+        <v>2.5894970947846589</v>
+      </c>
+      <c r="V23" s="0">
+        <v>0.49560559372250068</v>
+      </c>
+      <c r="W23" s="0">
+        <v>0.48087763392172767</v>
+      </c>
+      <c r="X23" s="0">
+        <v>0.72327850560127149</v>
+      </c>
+      <c r="Y23" s="0">
+        <v>-3.8808785243295989</v>
+      </c>
+      <c r="Z23" s="0">
+        <v>-2.8063529582137408</v>
+      </c>
+      <c r="AA23" s="0">
+        <v>-4.0622795298641323</v>
+      </c>
+      <c r="AB23" s="0">
+        <v>-2.1507117095639456</v>
+      </c>
+      <c r="AC23" s="0">
+        <v>-8.1815226601084348</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="0">
+        <v>1.8468684215574576</v>
+      </c>
+      <c r="E24" s="0">
+        <v>1.2100589691462342</v>
+      </c>
+      <c r="F24" s="0">
+        <v>1.6479875388111314</v>
+      </c>
+      <c r="G24" s="0">
+        <v>4.516606499916513</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.4212538503237836</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0.87618456154899904</v>
+      </c>
+      <c r="J24" s="0">
+        <v>0.44798049559206043</v>
+      </c>
+      <c r="K24" s="0">
+        <v>0.56993801945445166</v>
+      </c>
+      <c r="L24" s="0">
+        <v>2.2069444444444439</v>
+      </c>
+      <c r="M24" s="0">
+        <v>0.10858556495144699</v>
+      </c>
+      <c r="N24" s="0">
+        <v>0.89350407715558167</v>
+      </c>
+      <c r="O24" s="0">
+        <v>0.71664464846737674</v>
+      </c>
+      <c r="P24" s="0">
+        <v>0.86711937397935934</v>
+      </c>
+      <c r="Q24" s="0">
+        <v>0.77020117293804014</v>
+      </c>
+      <c r="R24" s="0">
+        <v>4.4867899808176297</v>
+      </c>
+      <c r="S24" s="0">
+        <v>1.378018787679258</v>
+      </c>
+      <c r="T24" s="0">
+        <v>6.3736089058189425</v>
+      </c>
+      <c r="U24" s="0">
+        <v>7.9153717913624879</v>
+      </c>
+      <c r="V24" s="0">
+        <v>0.56684513363146893</v>
+      </c>
+      <c r="W24" s="0">
+        <v>0.1740940064474289</v>
+      </c>
+      <c r="X24" s="0">
+        <v>0.80521914495210845</v>
+      </c>
+      <c r="Y24" s="0">
+        <v>-5.4016923932879957</v>
+      </c>
+      <c r="Z24" s="0">
+        <v>-3.1647175667356966</v>
+      </c>
+      <c r="AA24" s="0">
+        <v>-3.4720429841262082</v>
+      </c>
+      <c r="AB24" s="0">
+        <v>-2.4275065134646678</v>
+      </c>
+      <c r="AC24" s="0">
+        <v>-6.9232335694899261</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="0">
+        <v>4.2009129268752377</v>
+      </c>
+      <c r="E25" s="0">
+        <v>1.7014247292987341</v>
+      </c>
+      <c r="F25" s="0">
+        <v>1.9550238006964971</v>
+      </c>
+      <c r="G25" s="0">
+        <v>3.0645748992590467</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.82067792136380757</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0.81016774228555777</v>
+      </c>
+      <c r="J25" s="0">
+        <v>0.46126418143149528</v>
+      </c>
+      <c r="K25" s="0">
+        <v>0.71876909369749498</v>
+      </c>
+      <c r="L25" s="0">
+        <v>3.0346153846153845</v>
+      </c>
+      <c r="M25" s="0">
+        <v>0.40560092241279255</v>
+      </c>
+      <c r="N25" s="0">
+        <v>0.59628447878533852</v>
+      </c>
+      <c r="O25" s="0">
+        <v>0.46450998004039262</v>
+      </c>
+      <c r="P25" s="0">
+        <v>0.66665175601322857</v>
+      </c>
+      <c r="Q25" s="0">
+        <v>0.51058538124703778</v>
+      </c>
+      <c r="R25" s="0">
+        <v>1.5741528279944754</v>
+      </c>
+      <c r="S25" s="0">
+        <v>1.4584659717954387</v>
+      </c>
+      <c r="T25" s="0">
+        <v>2.7968888266681886</v>
+      </c>
+      <c r="U25" s="0">
+        <v>3.5252896654756714</v>
+      </c>
+      <c r="V25" s="0">
+        <v>0.44653148460697428</v>
+      </c>
+      <c r="W25" s="0">
+        <v>0.41371521497330521</v>
+      </c>
+      <c r="X25" s="0">
+        <v>0.79337844321249584</v>
+      </c>
+      <c r="Y25" s="0">
+        <v>-8.1848670814211459</v>
+      </c>
+      <c r="Z25" s="0">
+        <v>-3.5974858317692546</v>
+      </c>
+      <c r="AA25" s="0">
+        <v>-3.8396259358660356</v>
+      </c>
+      <c r="AB25" s="0">
+        <v>-2.4995547084048271</v>
+      </c>
+      <c r="AC25" s="0">
+        <v>-7.8535544457626214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="0">
+        <v>2.3578742173867737</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7.9068438943222681</v>
+      </c>
+      <c r="F26" s="0">
+        <v>2.2080496851434561</v>
+      </c>
+      <c r="G26" s="0">
+        <v>6.3344555125367661</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.46654713765687572</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0.82522887828834202</v>
+      </c>
+      <c r="J26" s="0">
+        <v>0.33183083998903157</v>
+      </c>
+      <c r="K26" s="0">
+        <v>0.41651059693873382</v>
+      </c>
+      <c r="L26" s="0">
+        <v>3.6361111111111115</v>
+      </c>
+      <c r="M26" s="0">
+        <v>0.33339645866925249</v>
+      </c>
+      <c r="N26" s="0">
+        <v>0.79284791517346087</v>
+      </c>
+      <c r="O26" s="0">
+        <v>0.64899790118330047</v>
+      </c>
+      <c r="P26" s="0">
+        <v>0.79462904377649202</v>
+      </c>
+      <c r="Q26" s="0">
+        <v>0.75190330438287623</v>
+      </c>
+      <c r="R26" s="0">
+        <v>1.81208621240012</v>
+      </c>
+      <c r="S26" s="0">
+        <v>0.95349527076476515</v>
+      </c>
+      <c r="T26" s="0">
+        <v>2.9516623462878897</v>
+      </c>
+      <c r="U26" s="0">
+        <v>3.5923697302804318</v>
+      </c>
+      <c r="V26" s="0">
+        <v>0.50442642279436578</v>
+      </c>
+      <c r="W26" s="0">
+        <v>0.26542236527817858</v>
+      </c>
+      <c r="X26" s="0">
+        <v>0.82164770552653321</v>
+      </c>
+      <c r="Y26" s="0">
+        <v>-5.0453219345928408</v>
+      </c>
+      <c r="Z26" s="0">
+        <v>-3.253170293236805</v>
+      </c>
+      <c r="AA26" s="0">
+        <v>-4.8050782916766304</v>
+      </c>
+      <c r="AB26" s="0">
+        <v>-2.5599310366867987</v>
+      </c>
+      <c r="AC26" s="0">
+        <v>-8.6442624667426013</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="0">
+        <v>2.7231979818915075</v>
+      </c>
+      <c r="E27" s="0">
+        <v>3.9467975744422232</v>
+      </c>
+      <c r="F27" s="0">
+        <v>2.450011505956323</v>
+      </c>
+      <c r="G27" s="0">
+        <v>3.1388298768577942</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.79817699374124618</v>
+      </c>
+      <c r="I27" s="0">
+        <v>1.3185013673507859</v>
+      </c>
+      <c r="J27" s="0">
+        <v>0.65611984784873167</v>
+      </c>
+      <c r="K27" s="0">
+        <v>0.95104942130386183</v>
+      </c>
+      <c r="L27" s="0">
+        <v>2.3384615384615386</v>
+      </c>
+      <c r="M27" s="0">
+        <v>0.10305172545696713</v>
+      </c>
+      <c r="N27" s="0">
+        <v>0.85301576113623556</v>
+      </c>
+      <c r="O27" s="0">
+        <v>0.77160577871875013</v>
+      </c>
+      <c r="P27" s="0">
+        <v>0.80557651650588458</v>
+      </c>
+      <c r="Q27" s="0">
+        <v>0.77179698427251242</v>
+      </c>
+      <c r="R27" s="0">
+        <v>2.0527279327182346</v>
+      </c>
+      <c r="S27" s="0">
+        <v>0.9418684369657061</v>
+      </c>
+      <c r="T27" s="0">
+        <v>2.6432030510758198</v>
+      </c>
+      <c r="U27" s="0">
+        <v>3.4766838348533247</v>
+      </c>
+      <c r="V27" s="0">
+        <v>0.59042697876059114</v>
+      </c>
+      <c r="W27" s="0">
+        <v>0.27091000554137007</v>
+      </c>
+      <c r="X27" s="0">
+        <v>0.76026557968200514</v>
+      </c>
+      <c r="Y27" s="0">
+        <v>-6.4157142546790515</v>
+      </c>
+      <c r="Z27" s="0">
+        <v>-2.7172427770146377</v>
+      </c>
+      <c r="AA27" s="0">
+        <v>-3.6606799771674412</v>
+      </c>
+      <c r="AB27" s="0">
+        <v>-2.0781798550038704</v>
+      </c>
+      <c r="AC27" s="0">
+        <v>-7.777703405320068</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="0">
+        <v>2.170912734194312</v>
+      </c>
+      <c r="E28" s="0">
+        <v>3.7969440007551869</v>
+      </c>
+      <c r="F28" s="0">
+        <v>1.9091330417668446</v>
+      </c>
+      <c r="G28" s="0">
+        <v>3.2499630982670116</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.66360168802171504</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0.93973086017955332</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0.53268049494799541</v>
+      </c>
+      <c r="K28" s="0">
+        <v>0.71553957951942571</v>
+      </c>
+      <c r="L28" s="0">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M28" s="0">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="N28" s="0">
+        <v>0.86211670987683564</v>
+      </c>
+      <c r="O28" s="0">
+        <v>0.71447435410313409</v>
+      </c>
+      <c r="P28" s="0">
+        <v>0.78068860902951609</v>
+      </c>
+      <c r="Q28" s="0">
+        <v>0.71483765508526143</v>
+      </c>
+      <c r="R28" s="0">
+        <v>2.9142150462848115</v>
+      </c>
+      <c r="S28" s="0">
+        <v>1.5089908005481969</v>
+      </c>
+      <c r="T28" s="0">
+        <v>3.5690743654512862</v>
+      </c>
+      <c r="U28" s="0">
+        <v>4.8485043465230966</v>
+      </c>
+      <c r="V28" s="0">
+        <v>0.60105443617362508</v>
+      </c>
+      <c r="W28" s="0">
+        <v>0.31122810101847315</v>
+      </c>
+      <c r="X28" s="0">
+        <v>0.73611862759506408</v>
+      </c>
+      <c r="Y28" s="0">
+        <v>-6.2641323124612249</v>
+      </c>
+      <c r="Z28" s="0">
+        <v>-3.3045286533624894</v>
+      </c>
+      <c r="AA28" s="0">
+        <v>-4.6313405909039638</v>
+      </c>
+      <c r="AB28" s="0">
+        <v>-2.2973419627020872</v>
+      </c>
+      <c r="AC28" s="0">
+        <v>-7.2557846582003833</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="0">
+        <v>4.5196751232008676</v>
+      </c>
+      <c r="E29" s="0">
+        <v>2.3709350860794212</v>
+      </c>
+      <c r="F29" s="0">
+        <v>2.3678997687894889</v>
+      </c>
+      <c r="G29" s="0">
+        <v>4.6020249635812034</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.65799019204027698</v>
+      </c>
+      <c r="I29" s="0">
+        <v>0.70274655843449352</v>
+      </c>
+      <c r="J29" s="0">
+        <v>0.46927655072135221</v>
+      </c>
+      <c r="K29" s="0">
+        <v>0.67890610874141655</v>
+      </c>
+      <c r="L29" s="0">
+        <v>2.4263888888888889</v>
+      </c>
+      <c r="M29" s="0">
+        <v>0.098846461219524187</v>
+      </c>
+      <c r="N29" s="0">
+        <v>0.94791466874476038</v>
+      </c>
+      <c r="O29" s="0">
+        <v>0.91230063614902979</v>
+      </c>
+      <c r="P29" s="0">
+        <v>0.95214620098196545</v>
+      </c>
+      <c r="Q29" s="0">
+        <v>0.92873852515235955</v>
+      </c>
+      <c r="R29" s="0">
+        <v>1.8557956496390249</v>
+      </c>
+      <c r="S29" s="0">
+        <v>1.7984274280389685</v>
+      </c>
+      <c r="T29" s="0">
+        <v>3.4290751636099381</v>
+      </c>
+      <c r="U29" s="0">
+        <v>4.2938182524215565</v>
+      </c>
+      <c r="V29" s="0">
+        <v>0.43220172362731563</v>
+      </c>
+      <c r="W29" s="0">
+        <v>0.41884106925688369</v>
+      </c>
+      <c r="X29" s="0">
+        <v>0.79860743096801201</v>
+      </c>
+      <c r="Y29" s="0">
+        <v>-5.5825125531203428</v>
+      </c>
+      <c r="Z29" s="0">
+        <v>-2.6144769268042345</v>
+      </c>
+      <c r="AA29" s="0">
+        <v>-3.1539904761996822</v>
+      </c>
+      <c r="AB29" s="0">
+        <v>-2.0679436840424823</v>
+      </c>
+      <c r="AC29" s="0">
+        <v>-6.8666555856033007</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="0">
+        <v>3.607197828654344</v>
+      </c>
+      <c r="E30" s="0">
+        <v>2.6511340245399895</v>
+      </c>
+      <c r="F30" s="0">
+        <v>4.0018169430791337</v>
+      </c>
+      <c r="G30" s="0">
+        <v>3.5819099026329777</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.76362581206845581</v>
+      </c>
+      <c r="I30" s="0">
+        <v>1.2926405665681167</v>
+      </c>
+      <c r="J30" s="0">
+        <v>0.62948548553954131</v>
+      </c>
+      <c r="K30" s="0">
+        <v>0.92092950319907818</v>
+      </c>
+      <c r="L30" s="0">
+        <v>2.1923076923076921</v>
+      </c>
+      <c r="M30" s="0">
+        <v>0.152542553961938</v>
+      </c>
+      <c r="N30" s="0">
+        <v>0.85626160927756401</v>
+      </c>
+      <c r="O30" s="0">
+        <v>0.7861392209813689</v>
+      </c>
+      <c r="P30" s="0">
+        <v>0.84722634428439025</v>
+      </c>
+      <c r="Q30" s="0">
+        <v>0.76800755180185942</v>
+      </c>
+      <c r="R30" s="0">
+        <v>2.7350216034167438</v>
+      </c>
+      <c r="S30" s="0">
+        <v>1.4564226704731444</v>
+      </c>
+      <c r="T30" s="0">
+        <v>3.6459532139548676</v>
+      </c>
+      <c r="U30" s="0">
+        <v>4.7848181788415163</v>
+      </c>
+      <c r="V30" s="0">
+        <v>0.5716040821594891</v>
+      </c>
+      <c r="W30" s="0">
+        <v>0.30438411994701298</v>
+      </c>
+      <c r="X30" s="0">
+        <v>0.76198364863210177</v>
+      </c>
+      <c r="Y30" s="0">
+        <v>-5.8046010811600519</v>
+      </c>
+      <c r="Z30" s="0">
+        <v>-5.030677356404011</v>
+      </c>
+      <c r="AA30" s="0">
+        <v>-8.1465562825157107</v>
+      </c>
+      <c r="AB30" s="0">
+        <v>-3.782126773522255</v>
+      </c>
+      <c r="AC30" s="0">
+        <v>-7.3205897887754441</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="0">
+        <v>3.304197105867948</v>
+      </c>
+      <c r="E31" s="0">
+        <v>2.46731250132872</v>
+      </c>
+      <c r="F31" s="0">
+        <v>4.4136529929639901</v>
+      </c>
+      <c r="G31" s="0">
+        <v>3.6235514525023911</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0.99120374757986884</v>
+      </c>
+      <c r="I31" s="0">
+        <v>0.83233658135155986</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0.63007243076041475</v>
+      </c>
+      <c r="K31" s="0">
+        <v>0.83054428090424492</v>
+      </c>
+      <c r="L31" s="0">
+        <v>2.2190476190476187</v>
+      </c>
+      <c r="M31" s="0">
+        <v>0.20136894137242359</v>
+      </c>
+      <c r="N31" s="0">
+        <v>0.86357735911989253</v>
+      </c>
+      <c r="O31" s="0">
+        <v>0.69448972142000454</v>
+      </c>
+      <c r="P31" s="0">
+        <v>0.88051029504869027</v>
+      </c>
+      <c r="Q31" s="0">
+        <v>0.76552631308023489</v>
+      </c>
+      <c r="R31" s="0">
+        <v>2.2196995123346732</v>
+      </c>
+      <c r="S31" s="0">
+        <v>1.9798974373230287</v>
+      </c>
+      <c r="T31" s="0">
+        <v>3.0025784904923611</v>
+      </c>
+      <c r="U31" s="0">
+        <v>4.2264095138716113</v>
+      </c>
+      <c r="V31" s="0">
+        <v>0.52519745307437393</v>
+      </c>
+      <c r="W31" s="0">
+        <v>0.46845849433774805</v>
+      </c>
+      <c r="X31" s="0">
+        <v>0.7104324558795162</v>
+      </c>
+      <c r="Y31" s="0">
+        <v>-3.0165001956630708</v>
+      </c>
+      <c r="Z31" s="0">
+        <v>-2.7815710803225921</v>
+      </c>
+      <c r="AA31" s="0">
+        <v>-2.92604929306437</v>
+      </c>
+      <c r="AB31" s="0">
+        <v>-1.9573403192863579</v>
+      </c>
+      <c r="AC31" s="0">
+        <v>-7.2888550976710222</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="0">
+        <v>3.2902279648343695</v>
+      </c>
+      <c r="E32" s="0">
+        <v>1.097665852609065</v>
+      </c>
+      <c r="F32" s="0">
+        <v>3.6629679049722386</v>
+      </c>
+      <c r="G32" s="0">
+        <v>3.744664563598668</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.95030825091160254</v>
+      </c>
+      <c r="I32" s="0">
+        <v>1.3651415354739387</v>
+      </c>
+      <c r="J32" s="0">
+        <v>0.76626626360656525</v>
+      </c>
+      <c r="K32" s="0">
+        <v>1.0183063705635587</v>
+      </c>
+      <c r="L32" s="0">
+        <v>2.0178571428571428</v>
+      </c>
+      <c r="M32" s="0">
+        <v>0.091862096038816191</v>
+      </c>
+      <c r="N32" s="0">
+        <v>0.8405179747377387</v>
+      </c>
+      <c r="O32" s="0">
+        <v>0.67542856647065375</v>
+      </c>
+      <c r="P32" s="0">
+        <v>0.86746936222940574</v>
+      </c>
+      <c r="Q32" s="0">
+        <v>0.78142302881743386</v>
+      </c>
+      <c r="R32" s="0">
+        <v>2.5803559683915038</v>
+      </c>
+      <c r="S32" s="0">
+        <v>1.3365133411226715</v>
+      </c>
+      <c r="T32" s="0">
+        <v>3.6185920734741348</v>
+      </c>
+      <c r="U32" s="0">
+        <v>4.6409819466167272</v>
+      </c>
+      <c r="V32" s="0">
+        <v>0.5559935371592174</v>
+      </c>
+      <c r="W32" s="0">
+        <v>0.28798072401401803</v>
+      </c>
+      <c r="X32" s="0">
+        <v>0.7797039753865207</v>
+      </c>
+      <c r="Y32" s="0">
+        <v>-7.2734587324377289</v>
+      </c>
+      <c r="Z32" s="0">
+        <v>-2.7281075705774911</v>
+      </c>
+      <c r="AA32" s="0">
+        <v>-4.156794072774721</v>
+      </c>
+      <c r="AB32" s="0">
+        <v>-2.0706946142540676</v>
+      </c>
+      <c r="AC32" s="0">
+        <v>-7.50932530268725</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3.5834195082950506</v>
+      </c>
+      <c r="E33" s="0">
+        <v>1.2410491994876334</v>
+      </c>
+      <c r="F33" s="0">
+        <v>3.9978536759960011</v>
+      </c>
+      <c r="G33" s="0">
+        <v>4.0935344323117677</v>
+      </c>
+      <c r="H33" s="0">
+        <v>1.0923004608216589</v>
+      </c>
+      <c r="I33" s="0">
+        <v>1.252033040681688</v>
+      </c>
+      <c r="J33" s="0">
+        <v>0.63843946948529717</v>
+      </c>
+      <c r="K33" s="0">
+        <v>1.0681222352598378</v>
+      </c>
+      <c r="L33" s="0">
+        <v>2.1642857142857141</v>
+      </c>
+      <c r="M33" s="0">
+        <v>0.15550539920507322</v>
+      </c>
+      <c r="N33" s="0">
+        <v>0.74429205200278137</v>
+      </c>
+      <c r="O33" s="0">
+        <v>0.67782011786342444</v>
+      </c>
+      <c r="P33" s="0">
+        <v>0.83088972460876054</v>
+      </c>
+      <c r="Q33" s="0">
+        <v>0.72262245551411419</v>
+      </c>
+      <c r="R33" s="0">
+        <v>2.478352169388514</v>
+      </c>
+      <c r="S33" s="0">
+        <v>1.7921475561396858</v>
+      </c>
+      <c r="T33" s="0">
+        <v>3.7334254240621205</v>
+      </c>
+      <c r="U33" s="0">
+        <v>4.8262291424593196</v>
+      </c>
+      <c r="V33" s="0">
+        <v>0.5135173022733045</v>
+      </c>
+      <c r="W33" s="0">
+        <v>0.37133494975882025</v>
+      </c>
+      <c r="X33" s="0">
+        <v>0.77356986455882704</v>
+      </c>
+      <c r="Y33" s="0">
+        <v>-7.4028615117087453</v>
+      </c>
+      <c r="Z33" s="0">
+        <v>-2.8708929563122974</v>
+      </c>
+      <c r="AA33" s="0">
+        <v>-3.8716042063925049</v>
+      </c>
+      <c r="AB33" s="0">
+        <v>-2.188467399969658</v>
+      </c>
+      <c r="AC33" s="0">
+        <v>-7.6623475086385806</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2.1730491845938831</v>
+      </c>
+      <c r="E34" s="0">
+        <v>1.9092035402201568</v>
+      </c>
+      <c r="F34" s="0">
+        <v>4.2434478735047936</v>
+      </c>
+      <c r="G34" s="0">
+        <v>3.5300894359339194</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.68797008801264403</v>
+      </c>
+      <c r="I34" s="0">
+        <v>0.70398106811324479</v>
+      </c>
+      <c r="J34" s="0">
+        <v>0.6195622505354087</v>
+      </c>
+      <c r="K34" s="0">
+        <v>0.76712353872888728</v>
+      </c>
+      <c r="L34" s="0">
+        <v>1.9559523809523809</v>
+      </c>
+      <c r="M34" s="0">
+        <v>0.15311678449715985</v>
+      </c>
+      <c r="N34" s="0">
+        <v>0.85433678088923082</v>
+      </c>
+      <c r="O34" s="0">
+        <v>0.74776957963258861</v>
+      </c>
+      <c r="P34" s="0">
+        <v>0.84514300696129052</v>
+      </c>
+      <c r="Q34" s="0">
+        <v>0.73278050743633927</v>
+      </c>
+      <c r="R34" s="0">
+        <v>3.1731690474409131</v>
+      </c>
+      <c r="S34" s="0">
+        <v>3.2422095399220368</v>
+      </c>
+      <c r="T34" s="0">
+        <v>4.4114089781406136</v>
+      </c>
+      <c r="U34" s="0">
+        <v>6.3278316726046153</v>
+      </c>
+      <c r="V34" s="0">
+        <v>0.5014623036163659</v>
+      </c>
+      <c r="W34" s="0">
+        <v>0.51237291187101086</v>
+      </c>
+      <c r="X34" s="0">
+        <v>0.69714385691375713</v>
+      </c>
+      <c r="Y34" s="0">
+        <v>-3.7558794078751201</v>
+      </c>
+      <c r="Z34" s="0">
+        <v>-2.7493840483068488</v>
+      </c>
+      <c r="AA34" s="0">
+        <v>-3.8202313074251326</v>
+      </c>
+      <c r="AB34" s="0">
+        <v>-1.9965120361781528</v>
+      </c>
+      <c r="AC34" s="0">
+        <v>-6.9546684296464161</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="0">
+        <v>4.3247701726245786</v>
+      </c>
+      <c r="E35" s="0">
+        <v>1.9476346746008626</v>
+      </c>
+      <c r="F35" s="0">
+        <v>4.2772262903887333</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.79222868430209981</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0.80553140423004221</v>
+      </c>
+      <c r="I35" s="0">
+        <v>0.81246720742562595</v>
+      </c>
+      <c r="J35" s="0">
+        <v>0.74540817555953431</v>
+      </c>
+      <c r="K35" s="0">
+        <v>1.0055442030589821</v>
+      </c>
+      <c r="L35" s="0">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="M35" s="0">
+        <v>0.15313671898292291</v>
+      </c>
+      <c r="N35" s="0">
+        <v>0.80554442716291019</v>
+      </c>
+      <c r="O35" s="0">
+        <v>0.65417632843528395</v>
+      </c>
+      <c r="P35" s="0">
+        <v>0.76748424180902663</v>
+      </c>
+      <c r="Q35" s="0">
+        <v>0.7075922764477719</v>
+      </c>
+      <c r="R35" s="0">
+        <v>2.2539280805910118</v>
+      </c>
+      <c r="S35" s="0">
+        <v>1.5250896472604092</v>
+      </c>
+      <c r="T35" s="0">
+        <v>2.8473488601589714</v>
+      </c>
+      <c r="U35" s="0">
+        <v>3.9387162573744958</v>
+      </c>
+      <c r="V35" s="0">
+        <v>0.57224941663948525</v>
+      </c>
+      <c r="W35" s="0">
+        <v>0.38720475088932071</v>
+      </c>
+      <c r="X35" s="0">
+        <v>0.72291291733133944</v>
+      </c>
+      <c r="Y35" s="0">
+        <v>-7.0599919121903634</v>
+      </c>
+      <c r="Z35" s="0">
+        <v>-3.0357040788772509</v>
+      </c>
+      <c r="AA35" s="0">
+        <v>-3.8774112576965245</v>
+      </c>
+      <c r="AB35" s="0">
+        <v>-2.2656323296135921</v>
+      </c>
+      <c r="AC35" s="0">
+        <v>-7.5434022231826763</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2.050733383830297</v>
+      </c>
+      <c r="E36" s="0">
+        <v>2.4718367011578404</v>
+      </c>
+      <c r="F36" s="0">
+        <v>3.332623025889216</v>
+      </c>
+      <c r="G36" s="0">
+        <v>2.2288789090682943</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.95430018806385442</v>
+      </c>
+      <c r="I36" s="0">
+        <v>0.7771232727982551</v>
+      </c>
+      <c r="J36" s="0">
+        <v>0.61974171282900969</v>
+      </c>
+      <c r="K36" s="0">
+        <v>0.92562223707709901</v>
+      </c>
+      <c r="L36" s="0">
+        <v>1.907142857142857</v>
+      </c>
+      <c r="M36" s="0">
+        <v>0.11241602482458911</v>
+      </c>
+      <c r="N36" s="0">
+        <v>0.75679748941043368</v>
+      </c>
+      <c r="O36" s="0">
+        <v>0.66737072278468534</v>
+      </c>
+      <c r="P36" s="0">
+        <v>0.76038964762254924</v>
+      </c>
+      <c r="Q36" s="0">
+        <v>0.60922062684719291</v>
+      </c>
+      <c r="R36" s="0">
+        <v>2.1096807733747522</v>
+      </c>
+      <c r="S36" s="0">
+        <v>2.1908621330337819</v>
+      </c>
+      <c r="T36" s="0">
+        <v>3.5983037112075267</v>
+      </c>
+      <c r="U36" s="0">
+        <v>4.7115198662001099</v>
+      </c>
+      <c r="V36" s="0">
+        <v>0.44777074771760067</v>
+      </c>
+      <c r="W36" s="0">
+        <v>0.46500114511896051</v>
+      </c>
+      <c r="X36" s="0">
+        <v>0.76372461825351434</v>
+      </c>
+      <c r="Y36" s="0">
+        <v>-2.789213744320953</v>
+      </c>
+      <c r="Z36" s="0">
+        <v>-2.7633977554658222</v>
+      </c>
+      <c r="AA36" s="0">
+        <v>-3.7130058090708293</v>
+      </c>
+      <c r="AB36" s="0">
+        <v>-2.1514433941930502</v>
+      </c>
+      <c r="AC36" s="0">
+        <v>-7.0523991544127158</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2.5492809762890034</v>
+      </c>
+      <c r="E37" s="0">
+        <v>1.6217475284456242</v>
+      </c>
+      <c r="F37" s="0">
+        <v>4.3336456337174329</v>
+      </c>
+      <c r="G37" s="0">
+        <v>3.599425717388812</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.85504254077504471</v>
+      </c>
+      <c r="I37" s="0">
+        <v>1.1332351043382556</v>
+      </c>
+      <c r="J37" s="0">
+        <v>0.61688406660805961</v>
+      </c>
+      <c r="K37" s="0">
+        <v>0.99879922256457276</v>
+      </c>
+      <c r="L37" s="0">
+        <v>2.0511904761904765</v>
+      </c>
+      <c r="M37" s="0">
+        <v>0.0939322099881615</v>
+      </c>
+      <c r="N37" s="0">
+        <v>0.83559657689470335</v>
+      </c>
+      <c r="O37" s="0">
+        <v>0.78453054494601615</v>
+      </c>
+      <c r="P37" s="0">
+        <v>0.85956135169767744</v>
+      </c>
+      <c r="Q37" s="0">
+        <v>0.74713231012176196</v>
+      </c>
+      <c r="R37" s="0">
+        <v>2.3841321021043722</v>
+      </c>
+      <c r="S37" s="0">
+        <v>1.4402788423587742</v>
+      </c>
+      <c r="T37" s="0">
+        <v>3.427710276851029</v>
+      </c>
+      <c r="U37" s="0">
+        <v>4.4167507022766292</v>
+      </c>
+      <c r="V37" s="0">
+        <v>0.53979322420789166</v>
+      </c>
+      <c r="W37" s="0">
+        <v>0.32609466538747078</v>
+      </c>
+      <c r="X37" s="0">
+        <v>0.77607057946109648</v>
+      </c>
+      <c r="Y37" s="0">
+        <v>-4.7818537604498061</v>
+      </c>
+      <c r="Z37" s="0">
+        <v>-2.8771606780810157</v>
+      </c>
+      <c r="AA37" s="0">
+        <v>-4.2396463610194068</v>
+      </c>
+      <c r="AB37" s="0">
+        <v>-2.2332818713596994</v>
+      </c>
+      <c r="AC37" s="0">
+        <v>-7.1376258300030395</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="0">
+        <v>3.1712076304230634</v>
+      </c>
+      <c r="E38" s="0">
+        <v>1.1177171588145798</v>
+      </c>
+      <c r="F38" s="0">
+        <v>4.9818466953095815</v>
+      </c>
+      <c r="G38" s="0">
+        <v>4.79447698624727</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0.69155806427802502</v>
+      </c>
+      <c r="I38" s="0">
+        <v>1.0760852944004875</v>
+      </c>
+      <c r="J38" s="0">
+        <v>0.47110788035471662</v>
+      </c>
+      <c r="K38" s="0">
+        <v>0.70571097527844118</v>
+      </c>
+      <c r="L38" s="0">
+        <v>2.1499999999999999</v>
+      </c>
+      <c r="M38" s="0">
+        <v>0.11491356841177729</v>
+      </c>
+      <c r="N38" s="0">
+        <v>0.88839732701881602</v>
+      </c>
+      <c r="O38" s="0">
+        <v>0.74484885395390665</v>
+      </c>
+      <c r="P38" s="0">
+        <v>0.85373859468398661</v>
+      </c>
+      <c r="Q38" s="0">
+        <v>0.77531615516161712</v>
+      </c>
+      <c r="R38" s="0">
+        <v>2.9278344121582003</v>
+      </c>
+      <c r="S38" s="0">
+        <v>1.2842641850866638</v>
+      </c>
+      <c r="T38" s="0">
+        <v>3.6439567003859445</v>
+      </c>
+      <c r="U38" s="0">
+        <v>4.8476766885180878</v>
+      </c>
+      <c r="V38" s="0">
+        <v>0.60396651845468396</v>
+      </c>
+      <c r="W38" s="0">
+        <v>0.2649236464404679</v>
+      </c>
+      <c r="X38" s="0">
+        <v>0.7516913636210103</v>
+      </c>
+      <c r="Y38" s="0">
+        <v>-7.3312446593933567</v>
+      </c>
+      <c r="Z38" s="0">
+        <v>-2.5493993751548283</v>
+      </c>
+      <c r="AA38" s="0">
+        <v>-3.2981997904780784</v>
+      </c>
+      <c r="AB38" s="0">
+        <v>-2.1039870300059365</v>
+      </c>
+      <c r="AC38" s="0">
+        <v>-6.8782516836564227</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="0">
+        <v>2.6510268979735021</v>
+      </c>
+      <c r="E39" s="0">
+        <v>2.2206831317846554</v>
+      </c>
+      <c r="F39" s="0">
+        <v>3.5200806599751573</v>
+      </c>
+      <c r="G39" s="0">
+        <v>4.3683430771723595</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.79253286004051104</v>
+      </c>
+      <c r="I39" s="0">
+        <v>0.88263404318440042</v>
+      </c>
+      <c r="J39" s="0">
+        <v>0.56902283188495084</v>
+      </c>
+      <c r="K39" s="0">
+        <v>0.87399028809068813</v>
+      </c>
+      <c r="L39" s="0">
+        <v>2.0654761904761902</v>
+      </c>
+      <c r="M39" s="0">
+        <v>0.1469729153655116</v>
+      </c>
+      <c r="N39" s="0">
+        <v>0.94879534034820379</v>
+      </c>
+      <c r="O39" s="0">
+        <v>0.90581261682315717</v>
+      </c>
+      <c r="P39" s="0">
+        <v>0.95313764604217754</v>
+      </c>
+      <c r="Q39" s="0">
+        <v>0.91269071796942991</v>
+      </c>
+      <c r="R39" s="0">
+        <v>2.6174589249021487</v>
+      </c>
+      <c r="S39" s="0">
+        <v>2.1282959693624606</v>
+      </c>
+      <c r="T39" s="0">
+        <v>3.9201088227315704</v>
+      </c>
+      <c r="U39" s="0">
+        <v>5.1718457187750984</v>
+      </c>
+      <c r="V39" s="0">
+        <v>0.50609764235621257</v>
+      </c>
+      <c r="W39" s="0">
+        <v>0.41151574990650092</v>
+      </c>
+      <c r="X39" s="0">
+        <v>0.75797095193706032</v>
+      </c>
+      <c r="Y39" s="0">
+        <v>-6.6897778667593242</v>
+      </c>
+      <c r="Z39" s="0">
+        <v>-2.8192528017829095</v>
+      </c>
+      <c r="AA39" s="0">
+        <v>-3.2597459312462718</v>
+      </c>
+      <c r="AB39" s="0">
+        <v>-2.1377527130538447</v>
+      </c>
+      <c r="AC39" s="0">
+        <v>-7.1745016441795189</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2.5683841298789454</v>
+      </c>
+      <c r="E40" s="0">
+        <v>2.3479558904446129</v>
+      </c>
+      <c r="F40" s="0">
+        <v>2.2454631504461662</v>
+      </c>
+      <c r="G40" s="0">
+        <v>5.054891045051277</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.62050429695316567</v>
+      </c>
+      <c r="I40" s="0">
+        <v>0.94220959618844857</v>
+      </c>
+      <c r="J40" s="0">
+        <v>0.65314306101143882</v>
+      </c>
+      <c r="K40" s="0">
+        <v>0.7797180642412902</v>
+      </c>
+      <c r="L40" s="0">
+        <v>2.5559523809523812</v>
+      </c>
+      <c r="M40" s="0">
+        <v>0.27515396955106242</v>
+      </c>
+      <c r="N40" s="0">
+        <v>0.77330272976024705</v>
+      </c>
+      <c r="O40" s="0">
+        <v>0.7206385762552705</v>
+      </c>
+      <c r="P40" s="0">
+        <v>0.74503199008156951</v>
+      </c>
+      <c r="Q40" s="0">
+        <v>0.5529132001292123</v>
+      </c>
+      <c r="R40" s="0">
+        <v>2.4297884861254921</v>
+      </c>
+      <c r="S40" s="0">
+        <v>1.5943996185363407</v>
+      </c>
+      <c r="T40" s="0">
+        <v>3.4906358638882038</v>
+      </c>
+      <c r="U40" s="0">
+        <v>4.5420833287335647</v>
+      </c>
+      <c r="V40" s="0">
+        <v>0.53495022223710975</v>
+      </c>
+      <c r="W40" s="0">
+        <v>0.35102826239449353</v>
+      </c>
+      <c r="X40" s="0">
+        <v>0.76850986898592877</v>
+      </c>
+      <c r="Y40" s="0">
+        <v>-3.417098797452113</v>
+      </c>
+      <c r="Z40" s="0">
+        <v>-3.086633780719974</v>
+      </c>
+      <c r="AA40" s="0">
+        <v>-3.8707398197972838</v>
+      </c>
+      <c r="AB40" s="0">
+        <v>-2.3297868340855223</v>
+      </c>
+      <c r="AC40" s="0">
+        <v>-7.2628758679745369</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1.8360238437375782</v>
+      </c>
+      <c r="E41" s="0">
+        <v>3.3666759952116529</v>
+      </c>
+      <c r="F41" s="0">
+        <v>4.0544702112925908</v>
+      </c>
+      <c r="G41" s="0">
+        <v>3.1050419007798182</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.85538822562287664</v>
+      </c>
+      <c r="I41" s="0">
+        <v>0.91016062431974221</v>
+      </c>
+      <c r="J41" s="0">
+        <v>0.61092776502977153</v>
+      </c>
+      <c r="K41" s="0">
+        <v>0.83806219958589601</v>
+      </c>
+      <c r="L41" s="0">
+        <v>1.9523809523809526</v>
+      </c>
+      <c r="M41" s="0">
+        <v>0.27204960762880914</v>
+      </c>
+      <c r="N41" s="0">
+        <v>0.6071984018953468</v>
+      </c>
+      <c r="O41" s="0">
+        <v>0.72858349912323161</v>
+      </c>
+      <c r="P41" s="0">
+        <v>0.67084305187124715</v>
+      </c>
+      <c r="Q41" s="0">
+        <v>0.43396084773245813</v>
+      </c>
+      <c r="R41" s="0">
+        <v>2.4970700146367029</v>
+      </c>
+      <c r="S41" s="0">
+        <v>2.8784978190808799</v>
+      </c>
+      <c r="T41" s="0">
+        <v>4.4096621820368709</v>
+      </c>
+      <c r="U41" s="0">
+        <v>5.8280553285068688</v>
+      </c>
+      <c r="V41" s="0">
+        <v>0.42845681344560005</v>
+      </c>
+      <c r="W41" s="0">
+        <v>0.49390365341956061</v>
+      </c>
+      <c r="X41" s="0">
+        <v>0.75662668479961293</v>
+      </c>
+      <c r="Y41" s="0">
+        <v>-4.8782197620188539</v>
+      </c>
+      <c r="Z41" s="0">
+        <v>-5.0680879175402849</v>
+      </c>
+      <c r="AA41" s="0">
+        <v>-7.5021993180143065</v>
+      </c>
+      <c r="AB41" s="0">
+        <v>-3.3447677534960567</v>
+      </c>
+      <c r="AC41" s="0">
+        <v>-7.1450434973665846</v>
       </c>
     </row>
   </sheetData>
